--- a/explore/rag_test_one.xlsx
+++ b/explore/rag_test_one.xlsx
@@ -485,9 +485,9 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>1. Допустимо ли при расчете НМЦ указывать ориентировочный объем, умноженный на единичные расценки?
-Ответ: Да, допустимо. Согласно документу "Content: 5.11. При закупках товаров (работ, услуг), когда невозможно заранее определить точный объем, конкретные сроки, место поставки товаров (выполнения работ, оказания услуг), но могут быть определены единичные расценки (прейскурант) на такие товары (работы, услуги), а также предельная стоимость и/или предельный объем закупки Заказчиком может быть применен рамочный или прейскурантный договор. При этом условиями рамочного или прейскурантного договора определяются единичные расценки (прейскурант) и максимальная цена договора, иные условия договора, а номенклатура объем, сроки и место поставки товаров (выполнения работ, оказания услуг) могу определяться заявками Заказчика или иным образом, предусмотренным рамочным или прейскурантным договором при возникновении у Заказчика потребности в товарах (работах, услугах).", единичные расценки могут быть использованы для определения НМЦ при ориентировочном объеме.
+Ответ: Да, допустимо. Согласно пункту 4.5.13 Положения о закупках, начальная (максимальная) цена договора (предмета закупки) методом сопоставимых рыночных цен (анализ рынка) определяется по формуле: НМЦ = ∑ Ц, где НМЦ - начальная (максимальная) цена договора (предмета закупки), определяемая методом сопоставимых рыночных цен (анализ рынка); 𝑣 - количество (объем) закупаемого товара (работы, услуги); 𝑛 - количество значений, используемых в расчете; 𝑖 - номер источника ценовой информации; Ц - цена единицы товара (работы, услуги), представленная в источнике с номером 𝑖, скорректированная с учетом коэффициентов (индексов), применяемых для пересчета цен товаров (работ, услуг) с учетом различий в характеристиках товаров, коммерческих и (или) финансовых условий поставок товаров (выполнения работ, оказания услуг), определяемых в соответствии с пунктом 4.5.10.
 2. Можно ли использовать стоимость какого-либо предполагаемого количества единиц товара или услуги, умноженную на соответствующую единичную расценку, для определения НМЦ?
-Ответ: Да, можно. Согласно документу "Content: 4.5.13. Начальная (максимальная) цена договора (предмета закупки) методом сопоставимых рыночных цен (анализ рынка) определяется по формуле: НМЦ = * ∑ Ц где: НМЦ - начальная (максимальная) цена договора (предмета закупки), определяемая методом сопоставимых рыночных цен (анализ рынка); 𝑣 - количество (объем) закупаемого товара (работы, услуги); 𝑛 - количество значений, используемых в расчете; 𝑖 - номер источника ценовой информации; Ц - цена единицы товара (работы, услуги), представленная в источнике с номером 𝑖, скорректированная с учетом коэффициентов (индексов), применяемых для пересчета цен товаров (работ, услуг) с учетом различий в характеристиках товаров, коммерческих и (или) финансовых условий поставок товаров (выполнения работ, оказания услуг), определяемых в соответствии с пунктом 4.5.10.", начальная (максимальная) цена договора может быть определена путем умножения стоимости единицы товара или услуги на предполагаемое количество.</t>
+Ответ: Да, можно. Согласно пункту 4.5.13 Положения о закупках, начальная (максимальная) цена договора (предмета закупки) методом сопоставимых рыночных цен (анализ рынка) определяется по формуле: НМЦ = ∑ Ц, где НМЦ - начальная (максимальная) цена договора (предмета закупки), определяемая методом сопоставимых рыночных цен (анализ рынка); 𝑣 - количество (объем) закупаемого товара (работы, услуги); 𝑛 - количество значений, используемых в расчете; 𝑖 - номер источника ценовой информации; Ц - цена единицы товара (работы, услуги), представленная в источнике с номером 𝑖, скорректированная с учетом коэффициентов (индексов), применяемых для пересчета цен товаров (работ, услуг) с учетом различий в характеристиках товаров, коммерческих и (или) финансовых условий поставок товаров (выполнения работ, оказания услуг), определяемых в соответствии с пунктом 4.5.10.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1. При осуществлении закупки у единственного поставщика при аренде АЗС у третьих лиц, с кем я должен согласовать диапазон цен?</t>
+          <t>1. С кем нужно согласовать диапазон цен при осуществлении закупки у единственного поставщика при аренде АЗС у третьих лиц?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,12 +519,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>При осуществлении закупки у единственного поставщика при аренде АЗС у третьих лиц, диапазон цен должен быть согласован с БОРиУ или иным подразделением, назначенным ЦОУЗ. Инициатор формирует Реестр по аренде с диапазоном цен, который должен быть подтвержден экспертным заключением независимого оценщика и внутренней экспертизой ДИОиАУ. После согласования БОРиУ, в пределах уровней, определенных Реестром по аренде, Инициатор осуществляет закупку у единственного поставщика.</t>
+          <t>Диапазон цен при осуществлении закупки у единственного поставщика при аренде АЗС у третьих лиц должен быть согласован с БОРиУ (или иным подразделением, назначенным ЦОУЗ), как указано в документе "Закупка у ЕдП Приложение 2". После согласования, в пределах установленных уровней, Инициатор может осуществлять закупку у единственного поставщика.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['3.2.', 'Закупка у ЕдП Приложение 2', 'Закупка у ЕдП Приложение 2', '3.1.', '3.2.4.', 'Закупка у ЕдП Приложение 2', '2.4.', 'Закупка у ЕдП', '1.6.', 'Закупка у ЕдП Приложение 2']</t>
+          <t>['3.2.', 'Закупка у ЕдП Приложение 2', 'Закупка у ЕдП Приложение 2', '3.2.4.', 'Закупка у ЕдП Приложение 2', '3.1.', '2.4.', '1.6.', 'Закупка у ЕдП', 'Закупка у ЕдП']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -542,7 +542,7 @@
       <c r="B4" t="inlineStr">
         <is>
           <t>1. Может ли быть заключен договор с участником, который подал заявку на конкурентный отбор, полностью соответствующую техническому заданию и не отклоненную службой безопасности?
-2. Какие возможны шаги и процедуры в данной ситуации?</t>
+2. Какие возможные шаги и процедуры следует предпринять в данной ситуации?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,18 +553,15 @@
       <c r="D4" t="inlineStr">
         <is>
           <t>1. Да, договор может быть заключен с участником, который подал заявку на конкурентный отбор, полностью соответствующую техническому заданию и не отклоненную службой безопасности.
-2. Возможные шаги и процедуры в данной ситуации включают:
-   - Проверку соответствия заявки участника требованиям технического задания и документации о конкурентном отборе.
-   - Анализ и оценку заявки участника на соответствие критериям отбора.
-   - Принятие решения о заключении договора с участником, если его заявка соответствует требованиям и критериям отбора.
-   - Подписание договора между участником и заказчиком на условиях, указанных в документации о конкурентном отборе и в заявке участника.
-   - Обеспечение исполнения договора, если это было установлено требованием документации о конкурентном отборе.
-Однако, необходимо учитывать, что в случае уклонения участника от заключения договора или непредставления обеспечения исполнения договора, заказчик может принять решение о признании запроса котировок несостоявшимся и объявить новую закупку.</t>
+2. Возможные шаги и процедуры в данной ситуации:
+   - Если по истечении срока подачи заявок на участие в конкурентном отборе подана только одна заявка, она должна быть рассмотрена и оценена в соответствии с документацией о конкурентном отборе.
+   - Если определенный по результатам конкурентного отбора поставщик (подрядчик, исполнитель) уклонился от заключения договора или не предоставил обеспечение исполнения договора, Заказчик должен незамедлительно уведомить Организатора о таких фактах. Организатор может пересмотреть итоги конкурентного отбора и определить другого поставщика (подрядчика, исполнителя) или объявить новую закупку.
+   - Если договор по результатам конкурентного отбора не заключен в установленный срок, Комиссия вправе отменить решение о результатах конкурентного отбора.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['ПоЗ', 'ПоЗ', 'ПоЗ', 'ПоЗ', 'ПоЗ', '13.2.3.', 'ПоЗ', 'ПоЗ', 'ПоЗ', 'ПоЗ']</t>
+          <t>['ПоЗ', 'ПоЗ', 'ПоЗ', 'ПоЗ', 'ПоЗ', 'ПоЗ', '13.2.3.', 'ПоЗ', 'ПоЗ', '14.12.6.']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -592,7 +589,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Коллективные участники, представленные физическими лицами, могут принимать участие в конкурентных процедурах. В соответствии с документами, требования к участникам закупки включают соответствие законодательству Российской Федерации, отсутствие процесса ликвидации и решения арбитражного суда о признании банкротом, неприостановление деятельности, а также другие требования, направленные на исключение риска неисполнения договора и обеспечение гарантий надлежащего исполнения обязательств. При подаче заявки группой лиц, требованиям должна соответствовать такая группа лиц, а не отдельно взятое лицо. В случае победы участника, на стороне которого выступало несколько физических или юридических лиц, заключается один договор со всеми лицами, при этом подписание может осуществляться одним лицом, обладающим соответствующими полномочиями.</t>
+          <t>1. Коллективные участники, представленные физическими лицами, могут принимать участие в конкурентных процедурах. 2. Соответствие такого состава участников правилам и требованиям зависит от конкретных документов, устанавливающих требования к участникам закупки. Важно отметить, что в соответствии с Положением о закупке (ПоЗ), при проведении закупок могут быть установлены требования к участникам закупки, включая соответствие требованиям законодательства Российской Федерации, отсутствие процесса ликвидации и решения арбитражного суда о признании банкротом, неприостановление деятельности, а также другие требования, направленные на исключение риска неисполнения договора и обеспечение гарантий надлежащего исполнения обязательства. Кроме того, при подаче заявки группой лиц, требованиям должна в совокупности отвечать такая группа лиц, а не отдельно взятое лицо.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -615,7 +612,7 @@
       <c r="B6" t="inlineStr">
         <is>
           <t>1. Какая дата заключения договора ВЗЛ?
-2. Может ли дата заключения договора быть строго 01.03.2023 или может быть в промежутке с 20.02.2023 по 31.03.2023?</t>
+2. Может ли дата заключения договора быть в промежутке с 20.02.2023 по 31.03.2023?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,15 +622,13 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Для ответа на вопросы необходимо обратиться к документам, указанным в запросе. 
-1. Дата заключения договора ВЗЛ не указана в предоставленных документах.
-2. Дата заключения договора может быть строго 01.03.2023 или в промежутке с 20.02.2023 по 31.03.2023.
-Однако, для более точного ответа необходимо обратиться к конкретным пунктам и статьям документов, которые могут содержать информацию о дате заключения договора ВЗЛ.</t>
+          <t>1. В документах не указана конкретная дата заключения договора ВЗЛ.
+2. Дата заключения договора может быть в промежутке с 20.02.2023 по 31.03.2023, если это соответствует условиям, установленным в документах.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['19.2.4.', '5.6.2.', 'ПоЗ', 'ПоЗ', 'ПоЗ', '3.1.', 'Закупка у ЕдП', '13.2.', '2.1.', 'ПоЗ']</t>
+          <t>['19.2.4.', '5.6.2.', 'ПоЗ', '13.2.', '19.2.', '3.1.', 'Закупка у ЕдП', 'ПоЗ', 'ПоЗ', '13.2.3.']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -660,7 +655,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Для определения НМЦ при закупке услуг по поставке и монтажу здания (не капитальное строительство), необходимо использовать метод сопоставимых рыночных цен (анализ рынка), который описан в пункте 4.5.13 документа "ПоЗ". Формула для определения НМЦ данным методом приведена в этом же пункте. Проектно-сметный метод, описанный в пункте 4.9.1 "ПоЗ", может быть применен при определении НМЦ на строительство, реконструкцию и капитальный ремонт объектов, а также на текущий ремонт зданий, сооружений, строений и помещений.</t>
+          <t>При закупке услуг по поставке и монтажу здания (не капитальное строительство) должен быть применен метод сопоставимых рыночных цен (анализ рынка), так как проектно-сметный метод применяется для определения начальной (максимальной) цены договора на строительство, реконструкцию и капитальный ремонт объектов, а также может быть применен при определении начальной (максимальной) цены договора на текущий ремонт зданий, сооружений, строений, помещений. При использовании данного метода начальная (максимальная) цена договора (предмета закупки) определяется по формуле: НМЦ = * ∑ Ц, где: НМЦ - начальная (максимальная) цена договора (предмета закупки), определяемая методом сопоставимых рыночных цен (анализ рынка); 𝑣 - количество (объем) закупаемого товара (работы, услуги); 𝑛 - количество значений, используемых в расчете; 𝑖 - номер источника ценовой информации; Ц - цена единицы товара (работы, услуги), представленная в источнике с номером 𝑖, скорректированная с учетом коэффициентов (индексов), применяемых для пересчета цен товаров (работ, услуг) с учетом различий в характеристиках товаров, коммерческих и (или) финансовых условий поставок товаров (выполнения работ, оказания услуг), определяемых в соответствии с пунктом 4.5.10.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -682,8 +677,8 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1. Вправе ли инициатор заключить по данной строке ГПЗ договор в январе (дата договора в январе)?
-2. Необходимо ли внести корректировку в ГПЗ в части планируемой даты подведения итогов закупки на январь?</t>
+          <t>1. Нужно ли вносить корректировку в ГПЗ в части планируемой даты подведения итогов закупки на январь?
+2. Вправе ли инициатор заключить по данной строке ГПЗ договор в январе?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -693,15 +688,13 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Для ответа на вопросы, связанные с заключением договора по данной строке ГПЗ в январе и необходимостью корректировки ГПЗ в части планируемой даты подведения итогов закупки на январь, необходимо обратиться к указанным документам.
-Согласно пункту 5.3.4 "Корректировка записей ГПЗ должна осуществляться в следующих случаях: 1) изменение предмета закупки / предмета договора (кроме случаев отмены потребности в первоначальной закупке); 2) изменение объема закупаемых товаров (работ, услуг); 3) изменение месяца инициации закупки на более поздний месяц в пределах года планирования; 4) изменение способа закупки; 5) изменение формы закупки ; 6) изменение Организатора / Координатора закупки; 7) разделение на лоты / процедуры, объединение в один лот / процедуру; 8) изменение кода услуги; 9) изменение категории закупки;", изменение месяца инициации закупки на более поздний месяц в пределах года планирования является основанием для корректировки записей ГПЗ.
-Однако, согласно пункту 5.3.6 "Ежемесячно Заказчик проверяет факт инициации запланированных в утвержденном ГПЗ закупок. Не инициированные в рамках месяца или ранее (в пределах года планирования) закупки подлежат переносу на иной срок (в пределах года) либо исключению из ГПЗ не позднее 2 р.д. с начала месяца, следующего за месяцем, в котором планировалось инициировать закупку.  Ответственность за актуальность сведений в ГПЗ несет Заказчик.", не инициированные в рамках месяца закупки подлежат переносу на иной срок или исключению из ГПЗ.
-Таким образом, для заключения договора по данной строке ГПЗ в январе и корректировки ГПЗ в части планируемой даты подведения итогов закупки на январь, необходимо внести соответствующие изменения в ГПЗ, так как это является основанием для корректировки записей ГПЗ. Ответственность за актуальность сведений в ГПЗ лежит на Заказчике.</t>
+          <t>1. Внесение корректировки в ГПЗ в части планируемой даты подведения итогов закупки на январь требуется, если изменился месяц инициации закупки на более поздний месяц в пределах года планирования. Согласно пункту 5.3.4 "Формирование ГПЗ", корректировка записей ГПЗ должна осуществляться в случае изменения месяца инициации закупки на более поздний месяц в пределах года планирования.
+2. Инициатор вправе заключить договор в январе, если все необходимые согласования и корректировки ГПЗ были выполнены в соответствии с установленными правилами. Согласно пункту 2.3 "Закупка у ЕдП Приложение 2", после согласования комплекта документов Дирекцией корпоративной защиты инициатор формирует комплект документов о закупке у ЕдП или вносит корректировки в ГПЗ. Ответственность за актуальность сведений в ГПЗ несет Заказчик (пункт 5.3.6 "Формирование ГПЗ").</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['Формирование ГПЗ', 'Формирование ГПЗ', 'Формирование ГПЗ', 'ПоЗ', '5.3.4.', '5.3.6.', 'Формирование ГПЗ', 'Формирование ГПЗ', 'ПоЗ', '4.2.']</t>
+          <t>['Формирование ГПЗ', 'Закупка у ЕдП Приложение 2', 'Формирование ГПЗ', '5.3.4.', '5.3.6.', 'Формирование ГПЗ', 'Формирование ГПЗ', 'Формирование ГПЗ', 'Формирование ГПЗ', '4.2.']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -719,7 +712,7 @@
       <c r="B9" t="inlineStr">
         <is>
           <t>1. Нужно ли делать корректировку в ГПЗ при уменьшении НМЦ закупки?
-2. Нужно ли делать корректировку в ГПЗ, если у заказчика уменьшилась потребность в чел. часах на выполнение работ, но состав работ и команда специалистов не изменились?</t>
+2. Требуется ли корректировка в ГПЗ, если у заказчика уменьшилась потребность в чел. часах на выполнение работ?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -729,13 +722,13 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1. В соответствии с документами, корректировка в ГПЗ при уменьшении НМЦ закупки не требуется, если это не связано с изменением предмета закупки / предмета договора, объема закупаемых товаров (работ, услуг), месяца инициации закупки, способа закупки, формы закупки, Организатора / Координатора закупки, разделения на лоты / процедуры, объединения в один лот / процедуру, изменения кода услуги или изменения категории закупки.
-2. В случае уменьшения потребности в чел. часах на выполнение работ, но при условии, что состав работ и команда специалистов не изменились, корректировка в ГПЗ не требуется. Однако, если это связано с изменением объема закупаемых товаров (работ, услуг), то корректировка в ГПЗ необходима.</t>
+          <t>1. В случае уменьшения НМЦ закупки корректировка в ГПЗ не требуется, если это уточнение произошло при инициировании закупки. Однако, если изменение НМЦ влечет за собой изменение объема закупаемых товаров (работ, услуг), то корректировка ГПЗ необходима (п. 5.3.4 Формирование ГПЗ).
+2. Если у заказчика уменьшилась потребность в чел. часах на выполнение работ, то корректировка в ГПЗ также требуется, так как это изменение объема закупаемых товаров (работ, услуг) (п. 5.3.4 Формирование ГПЗ).</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['Формирование ГПЗ', '7.3.', 'Формирование ГПЗ', '5.3.4.', '5.3.4.', 'Формирование ГПЗ', 'Формирование ГПЗ', '5.1.4.', 'Закупка у ЕдП', 'Формирование ГПЗ']</t>
+          <t>['Формирование ГПЗ', 'Формирование ГПЗ', '5.3.4.', 'Формирование ГПЗ', '5.3.4.', '5.1.4.', 'Формирование ГПЗ', 'Закупка у ЕдП', 'Формирование ГПЗ', '5.3.2.']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -762,7 +755,18 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Корректировка Годового плана закупок допускается в следующих случаях: изменение предмета закупки/предмета договора (кроме случаев отмены потребности в первоначальной закупке), изменение объема закупаемых товаров (работ, услуг), изменение месяца инициации закупки на более поздний месяц в пределах года планирования, изменение способа закупки, изменение формы закупки, изменение Организатора/Координатора закупки, разделение на лоты/процедуры, объединение в один лот/процедуру, изменение кода услуги, изменение категории закупки. Корректировка утвержденного ГПЗ осуществляется в АС "Планирование закупок" и предусматривает возможность формирования новой записи ГПЗ и/или изменения/исключения утвержденной ранее записи ГПЗ. Корректировки ГПЗ направляются на согласование по мере возникновения потребности в любое время до даты инициации закупки. В ГПЗ могут не включаться сведения о планируемых малостоящих закупках.</t>
+          <t>Годовой план закупок (ГПЗ) может быть скорректирован в следующих случаях: 
+1) изменение предмета закупки / предмера договора (кроме случаев отмены потребности в первоначальной закупке); 
+2) изменение объема закупаемых товаров (работ, услуг); 
+3) изменение месяца инициации закупки на более поздний месяц в пределах года планирования; 
+4) изменение способа закупки; 
+5) изменение формы закупки; 
+6) изменение Организатора / Координатора закупки; 
+7) разделение на лоты / процедуры, объединение в один лот / процедуру; 
+8) изменение кода услуги; 
+9) изменение категории закупки. 
+Корректировка ГПЗ осуществляется в АС «Планирование закупок» и предусматривает возможность формирования новой записи ГПЗ и/или изменения/исключения утвержденной ранее записи ГПЗ. Уровни согласования корректировок ГПЗ определяются в зависимости от НМЦ предмета закупки. Корректировки ГПЗ направляются на согласование по мере возникновения потребности в любое время до даты инициации закупки. 
+В ГПЗ могут не включаться сведения о планируемых малостоящих закупках. Внесение изменений в ГПЗ может быть вызвано необходимостью, связанной с внесением изменений в программы, определяющие производственную деятельность ПАО «Компания 1» и Обществ Компания 1, и бюджеты ПАО «Компания 1» и Обществ Компания 1. При уточнении предмета договора при объявлении закупки корректировка плана не требуется.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -796,11 +800,11 @@
       <c r="D11" t="inlineStr">
         <is>
           <t>Комиссия имеет право отклонить заявку в следующих случаях:
-- Несоответствия предмета заявки на участие в конкурсе предмету закупки, указанному в документации о конкурентной закупке, в том числе по количественным показателям (несоответствие количества поставляемого товара, объема выполняемых работ, оказываемых услуг).
-- Отсутствия документов, определенных документацией о маркетинговых исследованиях (заказом), либо наличия в таких документах недостоверных сведений об участнике маркетинговых исследований или о закупаемых товарах (работах, услугах).
-- Отсутствия обеспечения заявки на участие в маркетинговых исследованиях, если в документации о маркетинговых исследованиях (заказе) установлено данное требование.
-- Если по истечении срока подачи заявок на участие в конкурентном отборе подана только одна заявка, не отклонена только одна заявка, то Комиссия вправе признать конкурентный отбор несостоявшимся.
-Основания для отклонения заявки могут быть установлены в документации о конкурентном отборе, не противоречащие настоящему Положению.</t>
+- Несоответствие предмета заявки на участие в конкурсе предмету закупки, указанному в документации о конкурентной закупке, в том числе по количественным показателям (несоответствие количества поставляемого товара, объема выполняемых работ, оказываемых услуг) (пункт 10.3.6 ПоЗ);
+- Отсутствие документов, определенных документацией о маркетинговых исследованиях (заказом), либо наличие в таких документах недостоверных сведений об участнике маркетинговых исследований или о закупаемых товарах (работах, услугах) (пункт 15.9.10.2 ПоЗ);
+- Отсутствие обеспечения заявки на участие в маркетинговых исследованиях, если в документации о маркетинговых исследованиях (заказе) установлено данное требование (пункт 15.9.10.3 ПоЗ);
+- Предложенная участником цена договора превышает начальную (максимальную) цену предмета конкурентной закупки, указанную в извещении об осуществлении конкурентной закупки или документации о конкурентной закупке (пункт 7.7.8 ПоЗ).
+В документации о конкурентном отборе могут быть установлены дополнительные основания отклонения заявок участников конкурентного отбора, не противоречащие настоящему Положению (пункт 14.8.2 ПоЗ).</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -832,7 +836,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Метод удельных показателей в закупочных процедурах применяется в случаях, когда невозможно применить метод сопоставимых рыночных цен из-за отсутствия данных о рыночных ценах на товары, но при этом имеются сведения о ценах на однородные товары. Этот метод основан на зависимости стоимости товара от значений его основных технических параметров, таких как мощность, производительность, размеры и другие. Для расчета начальной (максимальной) цены договора используется формула, учитывающая действующую цену на ранее закупаемое изделие, показатель основного параметра этого изделия и показатель основного параметра изделия, на которое определяется цена. Также учитывается коэффициент торможения цены, который всегда меньше 1 (единицы) и учитывает силу влияния основного параметра на цену товара.</t>
+          <t>Метод удельных показателей в закупочных процедурах применяется в случаях, когда невозможно применить метод сопоставимых рыночных цен (анализ рынка) из-за отсутствия данных о рыночных ценах на товары, но при этом имеются сведения о ценах на однородные товары. Этот метод основан на зависимости стоимости товара от значений его основных технических параметров, таких как мощность, производительность, размеры и другие. Определение начальной (максимальной) цены договора производится путем расчета "удельной цены на основной параметр". В случае невозможности применения метода сопоставимых рыночных цен и метода удельных показателей может быть использован затратный метод. Однако метод сопоставимых рыночных цен является приоритетным для определения и обоснования начальной (максимальной) цены договора.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -865,16 +869,8 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Для отмены данной закупки необходимо предпринять следующие процедуры и шаги:
-1. Если закупка у единственного поставщика (подрядчика, исполнителя) еще не утверждена, Заказчик может принять решение об отмене закупки до утверждения решения о закупке у ЕдП.
-2. Если закупка уже утверждена, Заказчик может принять решение об отказе от заключения договорного документа по итогам процедуры закупки с обоснованием причин.
-В данной ситуации следует учесть следующие аспекты и ограничения:
-1. Отмена закупки у единственного поставщика является исключительной мерой и может быть применена только до утверждения решения о закупке у ЕдП.
-2. После утверждения решения о закупке у ЕдП, Заказчик может принять решение об отказе от заключения договорного документа по итогам процедуры закупки с обоснованием причин.
-3. При отмене закупки у ЕдП, Заказчик должен принять решение об отказе от заключения договорного документа по итогам процедуры закупки с обоснованием причин.
-4. При отказе от заключения договорного документа, Заказчик должен указать статус договорного документа «не заключен» и обосновать причины отказа.
-5. Корректировка ГПЗ в случае завершения закупки у ЕдП без заключения договора не требуется.
-Таким образом, для отмены данной закупки необходимо принять решение об отказе от заключения договорного документа по итогам процедуры закупки с обоснованием причин.</t>
+          <t>1. Для отмены закупки необходимо следовать процедурам, указанным в документах. В процессе проведения закупки у единственного поставщика до утверждения решения о закупке, заказчик может принять решение об отмене закупки (Закупка у ЕдП). Если срок отмены конкурентной закупки не истек, заказчик может отменить определение поставщика только в случае возникновения обстоятельств непреодолимой силы (ПоЗ).
+2. При отмене закупки следует учесть ограничения и аспекты, указанные в документах. Отмена закупки у единственного поставщика является исключительной мерой (Закупка у ЕдП). Заказчик может принять решение об отказе от заключения договора по итогам процедуры закупки с обоснованием причин (Закупка у ЕдП).</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -896,9 +892,9 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1. Можем ли мы использовать ориентировочное количество камер, умноженное на соответствующую единичную расценку, как основу для расчета НМЦ?
-2. Какие рекомендации можно дать относительно подобных ситуаций?
-3. Какие особенности конкретных предметов закупок следует учитывать при выстраивании закупочных процессов?</t>
+          <t>1. Как правильно рассчитать начальную максимальную цену (НМЦ) при планировании рамочного договора на поставку специализированных камер для фотосъемки с встроенным тепловизором?
+2. Можно ли использовать ориентировочное количество камер, умноженное на соответствующую единичную расценку, как основу для расчета НМЦ?
+3. Какие рекомендации можно получить относительно подобных ситуаций при расчете НМЦ?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -908,15 +904,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1. Использование ориентировочного количества камер, умноженного на соответствующую единичную расценку, в качестве основы для расчета НМЦ возможно, если это соответствует условиям и требованиям закупочной документации. Однако, необходимо учитывать, что точный объем закупки может быть определен только после проведения маркетинговых исследований и анализа рынка.
-2. Рекомендации в подобных ситуациях могут включать проведение тщательного анализа рынка, определение точного объема закупки и выбор оптимального метода расчета НМЦ. Также важно учитывать требования и условия закупочной документации, а также законодательные нормы и правила.
-3. Особенности конкретных предметов закупок, которые следует учитывать при выстраивании закупочных процессов, могут включать требования к качеству товаров, срокам поставки, условиям оплаты и другим параметрам. Важно также учитывать специфику отрасли и потребности заказчика.
-В целом, для предоставления детализированных ответов на вопросы, связанные с правилами, необходимо цитировать конкретные пункты и статьи документов, объяснять их применение и формулировать ответы грамотно.</t>
+          <t>1. Для расчета начальной максимальной цены (НМЦ) при планировании рамочного договора на поставку специализированных камер для фотосъемки с встроенным тепловизором можно использовать ориентировочное количество камер, умноженное на соответствующую единичную расценку. Это основано на методе сопоставимых рыночных цен (анализ рынка), который определяется по формуле: НМЦ = ∑ Ц, где 𝑣 - количество (объем) закупаемого товара (работы, услуги), 𝑛 - количество значений, используемых в расчете, 𝑖 - номер источника ценовой информации, Ц - цена единицы товара (работы, услуги), представленная в источнике с номером 𝑖, скорректированная с учетом коэффициентов (индексов), применяемых для пересчета цен товаров (работ, услуг) с учетом различий в характеристиках товаров, коммерческих и (или) финансовых условиях поставок товаров (выполнения работ, оказания услуг), определяемых в соответствии с пунктом 4.5.10.
+2. Рекомендации относительно подобных ситуаций при расчете НМЦ могут быть следующими: при наличии информации о ценах на аналогичные товары (работы, услуги) использовать метод сопоставимых рыночных цен (анализ рынка), который позволяет определить НМЦ на основе анализа рынка. Если такой информации нет, можно использовать затратный метод, который применяется в случае невозможности применения метод сопоставимых рыночных цен (анализ рынка) и метода удельных показателей (параметрический), или в дополнение к иным методам.
+3. При расчете НМЦ важно учитывать поправки на разницу в технических параметрах изделий, комплектации, сроках поставки однородных товаров и требуемого товара, коммерческих условиях сделок. Также следует учитывать, что цена растет медленнее, чем определяющий параметр товара, и для расчета применяется коэффициент торможения цены, который всегда меньше 1 (единицы).</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['7.2.1.3.', 'ПоЗ', '5.11.', '4.5.13.', 'ПоЗ', 'ПоЗ', 'ПоЗ', 'ПоЗ', 'Закупка у ЕдП Приложение 1', '3.1.']</t>
+          <t>['ПоЗ', 'Закупка у ЕдП', '4.5.13.', 'ПоЗ', '4.6.7.', '4.8.2.', 'Формирование ГПЗ', '3.1.', 'ПоЗ', 'ПоЗ']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -933,7 +928,8 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Возможно ли рассмотреть заключение договора с участником, который представил заявку, полностью соответствующую техническому заданию и не подвергнутый отклонению со стороны службы безопасности?</t>
+          <t>1. Возможно ли заключение договора с участником, который представил заявку, полностью соответствующую техническому заданию и не подвергнутую отклонению со стороны службы безопасности?
+2. Как поступить в ситуации, когда в конкурентном отборе участвует только один участник, соответствующий всем требованиям?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -943,12 +939,13 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>На основании представленных документов можно сделать вывод, что заключение договора с участником, который представил заявку, полностью соответствующую техническому заданию и не подвергнутый отклонению со стороны службы безопасности, возможно. Однако, если такой участник уклонится от заключения договора или не предоставит обеспечение исполнения договора, то он может быть признан уклонившимся от заключения договора, а его обеспечение заявки не будет возвращено. В таком случае заказчик может заключить договор с участником, который сделал предпоследнее предложение о цене договора.</t>
+          <t>1. Да, возможно заключение договора с участником, который представил заявку, полностью соответствующую техническому заданию и не подвергнутую отклонению со стороны службы безопасности. В случае, если по истечении срока подачи заявок на участие в конкурентном отборе подана только одна заявка, которая не отклонена, то такая заявка рассматривается в порядке, установленном документацией о конкурентном отборе.
+2. В ситуации, когда в конкурентном отборе участвует только один участник, соответствующий всем требованиям, Заказчик может признать конкурентный отбор несостоявшимся и провести повторный конкурентный отбор, закупку иным способом или заключить договор с единственным поставщиком в соответствии с пунктом 17.1.8.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['11.7.6.', '15.11.5.', '15.11.6.', 'ПоЗ', 'ПоЗ', 'ПоЗ', '13.2.3.', 'ПоЗ', 'ПоЗ', '11.7.4.']</t>
+          <t>['ПоЗ', '15.11.5.', 'ПоЗ', 'ПоЗ', 'ПоЗ', 'ПоЗ', 'ПоЗ', 'ПоЗ', 'ПоЗ', 'ПоЗ']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -975,7 +972,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Исходя из предоставленных документов, можно сделать вывод, что в данной ситуации заключение договора исключительно с представителем, который представил свое уникальное предложение, может быть рассмотрено. Однако, необходимо учитывать условия обращения товара, работы или услуги на товарных рынках, а также наличие ограниченной конкуренции и другие обстоятельства, которые свидетельствуют о предпочтительности закупки у единственного поставщика с экономической точки зрения. В случае признания аукциона несостоявшимся, заказчик также может заключить договор с единственным участником аукциона. Однако, необходимо учитывать, что завершение процедуры закупки у единственного поставщика без заключения договора является исключительной мерой.</t>
+          <t>В данной ситуации, если представлено уникальное предложение, которое является лучшим, можно рассмотреть возможность заключения договора исключительно с представителем, который его представил. Это подтверждается пунктом 15.12.12.1 Положения о закупке (ПоЗ). Однако, необходимо учитывать и другие условия, предусмотренные документами, такие как наличие оснований для проведения закупки у единственного поставщика (подрядчика, исполнителя), предусмотренные Положением о закупке, а также возможные ограничения конкуренции и экономическая эффективность такой закупки.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -997,8 +994,8 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1. Можно ли дочерним обществам самостоятельно заключить договор с единственным источником?
-2. Будет ли договор с единственным источником агентской схемой, если ДПБ является агентом?</t>
+          <t>1. Можно ли заключить договор с единственным источником самостоятельно?
+2. Будет ли это агентская схема? (ДПБ - агент)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1008,17 +1005,13 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1. Дочерние общества могут самостоятельно заключить договор с единственным источником, если они являются взаимозависимыми с заказчиком и 100% уставного капитала принадлежит заказчику.
-2. Договор с единственным источником не будет являться агентской схемой, если ДПБ является агентом.
-Обоснование:
-Согласно пункту 21.11.6 Положения о закупках (ПоЗ), дочерние общества могут заключать договоры с единственным источником, если они являются взаимозависимыми с заказчиком и 100% уставного капитала принадлежит заказчику.
-Однако, в данном случае, если ДПБ является агентом, то договор с единственным источником не будет являться агентской схемой. Агентская схема предполагает наличие посредника, который действует от имени и по поручению принципала, в то время как в данном случае ДПБ является стороной договора, а не посредником.
-Таким образом, дочерние общества могут самостоятельно заключить договор с единственным источником, если они являются взаимозависимыми с заказчиком и 100% уставного капитала принадлежит заказчику. Однако, такой договор не будет являться агентской схемой, если ДПБ является агентом.</t>
+          <t>1. Заключение договора с единственным источником возможно в случаях, когда проведение конкурентной закупки нецелесообразно по экономическим, временным или объективным причинам. Это может быть, например, заключение договора на поставку российских вооружения или военной техники с производителем или единственным поставщиком таких вооружения и военной техники, или заключение договора купли-продажи электрической энергии. В таких случаях, заказчик вправе провести повторный запрос предложений или заключить договор с единственным поставщиком (подрядчиком, исполнителем) [Закупка у ЕдП, ПоЗ].
+2. Вопрос о том, будет ли это агентской схемой, неясен и требует дополнительной информации для ответа. Необходимо уточнить, о какой конкретно ситуации идет речь и какие документы и правила применимы в данном случае [ДПБ - агент].</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['21.11.6.', 'ПоЗ', '21.11.2.', '17.2.', 'Закупка у ЕдП', 'ПоЗ', 'ПоЗ', '21.11.4.', '4.1.25.', '5.4.1.']</t>
+          <t>['3.1.', '12.1.10.', '6.2.2.5.', '4.1.25.', 'Закупка у ЕдП', 'ПоЗ', 'Закупка у ЕдП', '17.2.', 'Закупка у ЕдП Приложение 2', '6.7.7']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1036,7 +1029,7 @@
       <c r="B18" t="inlineStr">
         <is>
           <t>1. Как оформить закупку у ЕИ?
-2. Как заключить договорное соглашение в рамках продления срока действия Договора ООО «Компания 4»?</t>
+2. Как заключить договорное дополнительное соглашение в рамках продления срока действия Договора ООО «Компания 4»?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1046,15 +1039,13 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Для оформления закупки у ЕИ необходимо направить согласованный комплект документов в адрес утверждающего лица. После рассмотрения комплекта документов о закупке у ЕдП утверждающее лицо принимает решение о закупке у ЕдП и дальнейшем заключении договора. Инициатор / Закупочное подразделение инициирует процедуру заключения договорного документа в системе электронного документооборота в соответствии с требованиями процесса.
-Для заключения договорного соглашения в рамках продления срока действия Договора ООО «Компания 4» необходимо руководствоваться документом "ПоЗ". В соответствии с пунктом 19.2, долгосрочный договор заключается по результатам проведения закупки при соблюдении определенных условий, включая начальную (максимальную) цену товаров, работ, услуг, срок действия договора и обязательство производителя обеспечить достаточную степень локализации производства.
-Важно отметить, что для целей применения данного раздела Заказчик утверждает Перечень продукции, закупки которой являются предметом долгосрочного договора, размещаемый на сайте Заказчика.
-Таким образом, для оформления закупки у ЕИ необходимо направить согласованный комплект документов в адрес утверждающего лица, а для заключения договорного соглашения в рамках продления срока действия Договора ООО «Компания 4» необходимо руководствоваться документом "ПоЗ" и соблюдать определенные условия, включая начальную (максимальную) цену товаров, работ, услуг, срок действия договора и обязательство производителя обеспечить достаточную степень локализации производства.</t>
+          <t>1. Для оформления закупки у ЕИ необходимо сформировать комплект документов о закупке у ЕдП, который включает в себя договор на закупку услуг по сопровождению и обслуживанию рублевых долговых обязательств ПАО «Компания 2», и/или ПАО «Компания 1», и/или Компаний Группы Компания 2, и/или предприятий из числа Обществ Компания 1. Комплект документов формируется Инициатором и согласовывается Закупочным подразделением. Если предложение содержит письменное указание на согласие с существенными условиями договора, то предоставление отдельного документа с согласием не требуется.
+2. Для заключения договорного дополнительного соглашения в рамках продления срока действия Договора ООО «Компания 4» необходимо оформить комплект документов о закупке у ЕдП. В случае, если предложение содержит письменное указание на согласие с существенными условиями договора, то предоставление отдельного документа с согласием не требуется. Комплект документов формируется Инициатором и согласовывается Закупочным подразделением. Если требуется заключение долгосрочного договора, то он должен соответствовать определенным условиям, включая начальную (максимальную) цену, развитие производства на территории РФ, обязательство производителя обеспечить локализацию производства и срок действия договора.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['Закупка у ЕдП', '17.1.22.', 'ПоЗ', 'Закупка у ЕдП', '6.3.', 'Закупка у ЕдП', 'Закупка у ЕдП', '4.1.24.', '7.3.', '3.1.']</t>
+          <t>['Закупка у ЕдП', '17.1.22.', 'Закупка у ЕдП', '6.3.', 'Закупка у ЕдП', '3.1.', 'Закупка у ЕдП', 'ПоЗ', 'Закупка у ЕдП', '1.1.4.']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1071,7 +1062,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1. Допускается ли заключение договора с единственным поставщиком для обеспечения обучения сотрудников отдела?
+          <t>1. Допускается ли заключение договора с единственным поставщиком для обеспечения обучения сотрудников?
 2. Какие дополнительные шаги или процедуры следует предпринять в рамках данного бюджета?</t>
         </is>
       </c>
@@ -1082,17 +1073,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1. Допускается заключение договора с единственным поставщиком для обеспечения обучения сотрудников отдела, если проведение конкурентной закупки по экономическим, временным или объективным причинам нецелесообразно.
-2. В рамках данного бюджета следует предпринять следующие дополнительные шаги или процедуры:
-   - Определить основания для проведения закупки у единственного поставщика, такие как условия обращения товара, работы или услуги на товарных рынках, наличие ограниченной конкуренции, а также иные обстоятельства, которые свидетельствуют, что закупка у единственного поставщика предпочтительна для заказчика или проведение ее в иной форме нецелесообразно.
-   - Получить предложения от потенциальных поставщиков и провести анализ предложений.
-   - Утвердить решение о заключении договора с единственным поставщиком.
-   - В случае необходимости отмены закупки у единственного поставщика, принять решение об отмене закупки.
-Обоснование:
-- Согласно документам "Закупка у ЕдП" и "ПоЗ", заказчик имеет право осуществлять закупку товаров, работ, услуг у единственного поставщика, когда проведение конкурентной закупки нецелесообразно.
-- Документ "Закупка у ЕдП" указывает на необходимость обоснования необходимости заключения договора с единственным поставщиком, включая условия обращения товара, работы или услуги на товарных рынках, наличие ограниченной конкуренции и другие обстоятельства.
-- Документ "ПоЗ" содержит информацию о проведении маркетинговых исследований, которые могут быть проведены путем размещения информации о маркетинговых исследованиях в официальных источниках информации о закупках или путем направления запросов потенциальным поставщикам.
-- Документ "Закупка у ЕдП" также указывает на возможность отмены закупки у единственного поставщика, если заказчик принимает решение об этом до утверждения решения о закупке.</t>
+          <t>1. Допускается заключение договора с единственным поставщиком для обеспечения обучения сотрудников, если проведение конкурентной закупки по экономическим, временным или объективным причинам нецелесообразно. В этом случае, необходимо обоснование необходимости заключения договора с единственным поставщиком, которое может включать условия обращения товара, работы или услуги на товарных рынках, наличие ограниченной конкуренции или иные обстоятельства, свидетельствующие о предпочтительности закупки у единственного поставщика с экономической точки зрения или нецелесообразности проведения ее в иной форме.
+2. Дополнительные шаги или процедуры, которые следует предпринять в рамках данного бюджета, включают:
+   - Размещение информации о маркетинговых исследованиях в Официальных источниках информации о закупках.
+   - Направление потенциальным поставщикам (подрядчикам, исполнителям) запросов о возможности осуществить поставку товаров (выполнить работы, оказать услуги) и получение соответствующих предложений.
+   - Рассмотрение возможности вынесения на утверждение вопроса о проведении закупки у единственного поставщика (подрядчика, исполнителя) Сметной комиссией ПАО «Компания 1».
+   - Принятие решения о заключении договора с единственным поставщиком (подрядчиком, исполнителем) Утверждающим лицом.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1114,10 +1100,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1. Какую категорию необходимо указать для договора, если по нему предполагается работа по гарантированному негарантированному объему?
-2. Нужно ли добавить формулировку о переводе негарантированного объема в гарантированный в приложении 1?
-3. Какую формулировку п.5.4. необходимо использовать для рамочного договора?
-4. Насколько критичны изменения в формулировке п.5.4. для договора, прошедшего закупочную процедуру и согласование закупки?</t>
+          <t>1. Какую категорию необходимо указать в договоре, если по нему предполагается работа по гарантированному негарантированному объему?
+2. Нужно ли добавить в приложение 1 формулировку о том, что негарантированный объем переводится в гарантированный в определенном объеме и году?
+3. Как специалист ДЭиКП согласовал замену пункта 5.4 из договора?
+4. Какая формулировка пункта 5.4 соответствует рамочному договору?
+5. Насколько критичны изменения в формулировке пункта 5.4 для договора, прошедшего закупочную процедуру и согласование закупки?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1127,17 +1114,16 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Для ответа на вопросы необходимо обратиться к указанным документам.
-1. Для договора, предполагающего работу по гарантированному и негарантированному объему, необходимо указать категорию "Рамочный договор".
-2. В приложении 1 не требуется добавлять формулировку о переводе негарантированного объема в гарантированный, так как это не предусмотрено указанными документами.
-3. Для формулировки пункта 5.4 рамочного договора необходимо использовать следующую формулировку: "Заказчик вправе вносить изменения в заявки на поставку товаров (выполнение работ, оказание услуг) в рамках рамочного договора, при условии, что такие изменения не противоречат условиям рамочного договора и не влекут за собой изменение цены договора".
-4. Изменения в формулировке пункта 5.4 для договора, прошедшего закупочную процедуру и согласование закупки, могут быть критичными, так как они могут повлиять на условия исполнения договора.
-Однако, для более точного ответа необходимо обратиться к конкретным пунктам и статьям указанных документов.</t>
+          <t>1. В договоре необходимо указать категорию "гарантированный объем".
+2. Добавление в приложение 1 формулировки о переводе негарантированного объема в гарантированный не требуется, так как это не влияет на условия договора.
+3. Специалист ДЭиКП согласовал замену пункта 5.4 из договора, учитывая требования и условия документации.
+4. Формулировка пункта 5.4, соответствующая рамочному договору, должна включать условия о единичных расценках, максимальной цене договора и определении номенклатуры, объема, сроков и места поставки товаров (работ, услуг) заявками заказчика или иным образом, предусмотренным рамочным договором.
+5. Изменения в формулировке пункта 5.4 для договора, прошедшего закупочную процедуру и согласование закупки, не являются критичными, если они не нарушают условия договора и соответствуют требованиям документации.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['5.11.', 'ПоЗ', 'ПоЗ', 'ПоЗ', 'ПоЗ', '4.5.16.', '4.5.10.', 'Формирование ГПЗ', 'ПоЗ', 'ПоЗ']</t>
+          <t>['ПоЗ', '5.11.', 'ПоЗ', 'ПоЗ', 'ПоЗ', '4.5.16.', '5.4.', 'ПоЗ', '4.5.10.', '4.5.10.']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1154,8 +1140,8 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1. По какой методике ценообразования можно заключить рамочный договор на выполнение работ по обустройству модернизации  дооснащению офисных помещений в условиях отсутствия РД и сметной документации на работы?
-2. Как можно определить цену таких работ, которые не указаны в прайсе и могут возникнуть при эксплуатации объектов?</t>
+          <t>1. По какой методике ценообразования можно заключить рамочный договор на выполнение работ по обустройству модернизации дооснащению офисных помещений в условиях отсутствия РД и сметной документации на работы?
+2. Как можно определить цену работ, которых нет в прайсе?</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1165,13 +1151,13 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Для определения начальной (максимальной) цены договора на выполнение работ по обустройству, модернизации и дооснащению офисных помещений в условиях отсутствия РД и сметной документации на работы можно использовать метод сопоставимых рыночных цен (анализ рынка) в соответствии с Положением о закупках. При этом необходимо провести анализ цен на однородные товары (работы, услуги) с последующей корректировкой с учетом разницы в характеристиках. Также можно использовать другие методы, предусмотренные Положением о закупках, если применение метода сопоставимых рыночных цен невозможно.
-Определение цены работ, которые не указаны в прайсе и могут возникнуть при эксплуатации объектов, может быть осуществлено путем проведения дополнительных переговоров с участниками закупки для получения лучших условий исполнения договора, в том числе по более низкой цене. Также можно провести новые маркетинговые исследования в целях поиска дополнительных участников. В случае невозможности применения одного из методов определения цены можно использовать другие методы, не указанные в Положении о закупках.</t>
+          <t>1. Для заключения рамочного договора на выполнение работ по обустройству, модернизации и дооснащению офисных помещений в условиях отсутствия РД и сметной документации на работы можно использовать метод сопоставимых рыночных цен (анализ рынка), который является приоритетным для определения и обоснования начальной (максимальной) цены договора (предмета закупки). Использование иных методов возможно в случаях, предусмотренных Положением о закупках.
+2. Для определения цены работ, которых нет в прайсе, можно использовать метод сопоставимых рыночных цен (анализ рынка), который заключается в применении цен однородных товаров (работ, услуг) с последующей корректировкой с учетом разницы в характеристиках товаров (работ, услуг). При этом производится сбор данных о ценах на отдельные составные элементы, входящие в требуемую комплектацию товара, на единичные работы (услуги), которые в целом представляют выполнение требуемой работы (услуги).</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['ПоЗ', 'ПоЗ', 'ПоЗ', '4.5.4.', 'ПоЗ', 'Закупка у ЕдП', 'ПоЗ', 'ПоЗ', 'ПоЗ', 'ПоЗ']</t>
+          <t>['ПоЗ', '11.1.2.', 'ПоЗ', 'ПоЗ', '4.5.4.', 'ПоЗ', 'ПоЗ', 'ПоЗ', '17.1.26.', 'Закупка у ЕдП']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
